--- a/data/trans_orig/P24F-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>8587</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3862</v>
+        <v>4601</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15328</v>
+        <v>16248</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04205114223160645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01891333294626105</v>
+        <v>0.0225310055377245</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07505752360194443</v>
+        <v>0.07956215767929113</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -764,19 +764,19 @@
         <v>7565</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3713</v>
+        <v>3648</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14946</v>
+        <v>14393</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04479251477427749</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02198731424962944</v>
+        <v>0.02159987208497562</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08849700292475195</v>
+        <v>0.085221868435033</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -785,19 +785,19 @@
         <v>16152</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9326</v>
+        <v>10476</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24997</v>
+        <v>25235</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04329204188537</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02499687375724342</v>
+        <v>0.02807955502451997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0669988774209055</v>
+        <v>0.06763522798625606</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>106400</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>90814</v>
+        <v>91169</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>119523</v>
+        <v>120318</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5210247420248978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4447026323807206</v>
+        <v>0.446442982832032</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5852839211989499</v>
+        <v>0.5891797494168729</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -835,19 +835,19 @@
         <v>79693</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66659</v>
+        <v>67449</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>91639</v>
+        <v>92109</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4718752379136329</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3946976800676299</v>
+        <v>0.3993783043643593</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5426086802418686</v>
+        <v>0.5453939673698066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>192</v>
@@ -856,19 +856,19 @@
         <v>186093</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>164921</v>
+        <v>168130</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>205116</v>
+        <v>204473</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4987769075241211</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4420305508128376</v>
+        <v>0.4506313208020947</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5497638273340452</v>
+        <v>0.5480387483531637</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>34712</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25115</v>
+        <v>25712</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46511</v>
+        <v>46150</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1699780167891375</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.122983817709354</v>
+        <v>0.1259095982110414</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2277565162028784</v>
+        <v>0.2259883126445046</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -906,19 +906,19 @@
         <v>41418</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30470</v>
+        <v>30736</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54067</v>
+        <v>52968</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2452399496272031</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1804183505628027</v>
+        <v>0.1819909688489496</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3201364650169126</v>
+        <v>0.313630941759822</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>78</v>
@@ -927,19 +927,19 @@
         <v>76129</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>60849</v>
+        <v>61019</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>92003</v>
+        <v>93750</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2040458076299018</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.16309189791357</v>
+        <v>0.1635467673439792</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2465910961289523</v>
+        <v>0.2512737206548415</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>54514</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42215</v>
+        <v>42835</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69621</v>
+        <v>67768</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2669460989543583</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2067215775227039</v>
+        <v>0.2097544728389672</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3409236510110961</v>
+        <v>0.3318499103261238</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -977,19 +977,19 @@
         <v>40210</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30563</v>
+        <v>29283</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51776</v>
+        <v>52275</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2380922976848866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1809674485787741</v>
+        <v>0.173389847852314</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3065723366899986</v>
+        <v>0.3095286594810312</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>95</v>
@@ -998,19 +998,19 @@
         <v>94724</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78350</v>
+        <v>78568</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112249</v>
+        <v>110595</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2538852429606072</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2099986518289973</v>
+        <v>0.2105827777780922</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3008567680649233</v>
+        <v>0.2964233563095032</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>10721</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4856</v>
+        <v>4999</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19112</v>
+        <v>20060</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02687125378510782</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01216956056484644</v>
+        <v>0.0125280997814656</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04789939234260849</v>
+        <v>0.05027538838367105</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -1123,19 +1123,19 @@
         <v>13516</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8060</v>
+        <v>7504</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22554</v>
+        <v>22190</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05778484835345023</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03445847710562246</v>
+        <v>0.03208139457001587</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09641989486927763</v>
+        <v>0.09486577755988686</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>23</v>
@@ -1144,19 +1144,19 @@
         <v>24238</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15267</v>
+        <v>15604</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>36199</v>
+        <v>36134</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03829637490088032</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02412291372444229</v>
+        <v>0.02465400654050951</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05719487858352448</v>
+        <v>0.05709209228143528</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>174043</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>155075</v>
+        <v>153198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>194179</v>
+        <v>194002</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4362062403485979</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3886664580086873</v>
+        <v>0.383960697679586</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4866727622492621</v>
+        <v>0.4862278813819895</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -1194,19 +1194,19 @@
         <v>84452</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69223</v>
+        <v>69326</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>99559</v>
+        <v>100014</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3610455686767316</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2959393017753812</v>
+        <v>0.2963793820011779</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4256314763504889</v>
+        <v>0.427576711138259</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>249</v>
@@ -1215,19 +1215,19 @@
         <v>258495</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>230548</v>
+        <v>234297</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>281889</v>
+        <v>284229</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4084281773641894</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3642716852897761</v>
+        <v>0.3701945002276993</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4453905003762789</v>
+        <v>0.4490891985658687</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>133431</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>114212</v>
+        <v>116849</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>152134</v>
+        <v>155128</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3344202863281005</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2862500044922375</v>
+        <v>0.2928593742406997</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3812955287975389</v>
+        <v>0.3887978520805434</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>89</v>
@@ -1265,19 +1265,19 @@
         <v>90058</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74422</v>
+        <v>75502</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>106167</v>
+        <v>107581</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3850124323312059</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3181638915664232</v>
+        <v>0.3227817769390069</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4538790762939721</v>
+        <v>0.4599247536091743</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>220</v>
@@ -1286,19 +1286,19 @@
         <v>223489</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>200809</v>
+        <v>197937</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>248564</v>
+        <v>247630</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3531182541206994</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3172829126353156</v>
+        <v>0.312745464790711</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3927365263709943</v>
+        <v>0.391260996963933</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>80797</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>64984</v>
+        <v>65762</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>96163</v>
+        <v>100218</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2025022195381938</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.162869647674819</v>
+        <v>0.1648187799049429</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2410135579481192</v>
+        <v>0.2511780836685137</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>44</v>
@@ -1336,19 +1336,19 @@
         <v>45883</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34340</v>
+        <v>34447</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>58901</v>
+        <v>57943</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1961571506386123</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1468091434978383</v>
+        <v>0.1472668303425384</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2518107337337743</v>
+        <v>0.2477157984059031</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>119</v>
@@ -1357,19 +1357,19 @@
         <v>126680</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>108735</v>
+        <v>105668</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>147250</v>
+        <v>146281</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.200157193614231</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1718042141066875</v>
+        <v>0.1669577697497898</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2326582866536383</v>
+        <v>0.2311270839155068</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>15085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8276</v>
+        <v>8275</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23716</v>
+        <v>25382</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04424039900610114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02427199430874959</v>
+        <v>0.02426930585507111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06955301249655697</v>
+        <v>0.07443991229209596</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -1482,19 +1482,19 @@
         <v>14210</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8097</v>
+        <v>7899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22136</v>
+        <v>22264</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05519108500658963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03144854897549665</v>
+        <v>0.03068031954960218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08597665306598805</v>
+        <v>0.08647474519918318</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -1503,19 +1503,19 @@
         <v>29294</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20046</v>
+        <v>19865</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41641</v>
+        <v>42668</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04895164831665293</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03349818820980583</v>
+        <v>0.03319555592137984</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06958351396229129</v>
+        <v>0.0712986726417732</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>124630</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>106953</v>
+        <v>106934</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>142383</v>
+        <v>143674</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3655137104416838</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3136703577065301</v>
+        <v>0.3136139838061857</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4175793311622414</v>
+        <v>0.4213643397709592</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>72</v>
@@ -1553,19 +1553,19 @@
         <v>74868</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>60265</v>
+        <v>60679</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>89438</v>
+        <v>90449</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2907926157154816</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2340742326656541</v>
+        <v>0.2356813358609783</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3473859788009611</v>
+        <v>0.3513099641216598</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>193</v>
@@ -1574,19 +1574,19 @@
         <v>199498</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>175031</v>
+        <v>175598</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>221932</v>
+        <v>221519</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3333668927905529</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2924825122027878</v>
+        <v>0.2934296986672839</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3708547302808231</v>
+        <v>0.3701644059384752</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>148531</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>131266</v>
+        <v>129080</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>167937</v>
+        <v>165606</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4356080108876744</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3849747378285041</v>
+        <v>0.3785651178259519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4925234913906531</v>
+        <v>0.4856872731569254</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>128</v>
@@ -1624,19 +1624,19 @@
         <v>133287</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>116887</v>
+        <v>116909</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>149912</v>
+        <v>148660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.517696402334729</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4539986158791622</v>
+        <v>0.4540849433227661</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5822724020972573</v>
+        <v>0.577407296739393</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>272</v>
@@ -1645,19 +1645,19 @@
         <v>281817</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>255783</v>
+        <v>255617</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>307692</v>
+        <v>307548</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4709244173294252</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4274202561579827</v>
+        <v>0.4271437678709143</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5141623988996478</v>
+        <v>0.5139211825108937</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>52727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39080</v>
+        <v>40106</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>68064</v>
+        <v>68564</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1546378796645407</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1146136684126652</v>
+        <v>0.1176208793498675</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1996172030694885</v>
+        <v>0.2010826287409171</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -1695,19 +1695,19 @@
         <v>35097</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24823</v>
+        <v>24715</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48519</v>
+        <v>47417</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1363198969431997</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09641522488796009</v>
+        <v>0.09599431966169823</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1884530707500102</v>
+        <v>0.1841702185398477</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>81</v>
@@ -1716,19 +1716,19 @@
         <v>87824</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>71521</v>
+        <v>70322</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>106106</v>
+        <v>107934</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.146757041563369</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1195131335765353</v>
+        <v>0.1175102099411056</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1773067611151058</v>
+        <v>0.1803613245311403</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>7409</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2719</v>
+        <v>2725</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14522</v>
+        <v>14824</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03156335798125771</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01158159093332032</v>
+        <v>0.01160954162404399</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0618649388020987</v>
+        <v>0.06315116970196757</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1841,19 +1841,19 @@
         <v>10038</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5038</v>
+        <v>5052</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17146</v>
+        <v>18376</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06924100678198106</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03475060644905153</v>
+        <v>0.03485045258670284</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1182772263210541</v>
+        <v>0.126763889058298</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1862,19 +1862,19 @@
         <v>17447</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10573</v>
+        <v>10203</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27278</v>
+        <v>27518</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04594834283795077</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02784499535527148</v>
+        <v>0.02686985561076082</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07184194801768254</v>
+        <v>0.07247363655723826</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>64243</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52475</v>
+        <v>50142</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79103</v>
+        <v>79483</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2736830838263781</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2235507446798868</v>
+        <v>0.2136116022088674</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3369889129985531</v>
+        <v>0.338607210984009</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -1912,19 +1912,19 @@
         <v>46539</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35112</v>
+        <v>36208</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58270</v>
+        <v>59653</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3210371226091824</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2422082813979221</v>
+        <v>0.2497666116831263</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4019579988488068</v>
+        <v>0.4114967151170267</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>106</v>
@@ -1933,19 +1933,19 @@
         <v>110782</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>94047</v>
+        <v>95097</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>129517</v>
+        <v>129023</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2917624266855009</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2476866065482912</v>
+        <v>0.2504515124082687</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3411023825824072</v>
+        <v>0.339801915517588</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>120537</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>105252</v>
+        <v>105223</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>136508</v>
+        <v>135976</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5135009278808563</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4483849447818518</v>
+        <v>0.4482618085221212</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5815389825036141</v>
+        <v>0.5792746069123387</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>67</v>
@@ -1983,19 +1983,19 @@
         <v>69840</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>57740</v>
+        <v>57619</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>81246</v>
+        <v>81255</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4817668600740651</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3983016873360586</v>
+        <v>0.3974629605165707</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.560452044042602</v>
+        <v>0.5605135772684361</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>178</v>
@@ -2004,19 +2004,19 @@
         <v>190376</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>170027</v>
+        <v>170692</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>211173</v>
+        <v>209484</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5013851483836708</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4477927282095956</v>
+        <v>0.4495437845931936</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5561564407509855</v>
+        <v>0.5517085623111996</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>42546</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31513</v>
+        <v>32147</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57834</v>
+        <v>56641</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1812526303115079</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1342487448833432</v>
+        <v>0.1369496889644612</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.246382053912904</v>
+        <v>0.241297483790917</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2054,19 +2054,19 @@
         <v>18549</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11814</v>
+        <v>11798</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27933</v>
+        <v>27419</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1279550105347715</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0814976364833246</v>
+        <v>0.08138525753079398</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1926876106835345</v>
+        <v>0.1891400091012145</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -2075,19 +2075,19 @@
         <v>61095</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47157</v>
+        <v>47856</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77971</v>
+        <v>76581</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1609040820928775</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1241954706373521</v>
+        <v>0.126035966445083</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2053493905602451</v>
+        <v>0.2016869156829481</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>9615</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5116</v>
+        <v>4965</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16654</v>
+        <v>16625</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07471326450289745</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03975540915432192</v>
+        <v>0.03858197336532428</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1294130796712156</v>
+        <v>0.1291869167264319</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5061</v>
+        <v>4936</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0208053401575692</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1079442183433418</v>
+        <v>0.1052628495764764</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -2221,19 +2221,19 @@
         <v>10590</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5360</v>
+        <v>5515</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18270</v>
+        <v>17535</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0603172628597668</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0305301826911629</v>
+        <v>0.03140831101797024</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1040545835821496</v>
+        <v>0.09987256062057086</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>28107</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19350</v>
+        <v>19894</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37585</v>
+        <v>38543</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2184070826493321</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1503591122892224</v>
+        <v>0.1545882359512848</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2920527585272514</v>
+        <v>0.2994986443765483</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -2271,19 +2271,19 @@
         <v>16366</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10655</v>
+        <v>10458</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23867</v>
+        <v>24478</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3490428164114903</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2272404450438485</v>
+        <v>0.2230376308275631</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5090114510619468</v>
+        <v>0.5220506309397464</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>44</v>
@@ -2292,19 +2292,19 @@
         <v>44473</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32938</v>
+        <v>34043</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>57624</v>
+        <v>57226</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2532930898686878</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1875954792540896</v>
+        <v>0.1938926787558184</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3281932341390533</v>
+        <v>0.3259317148492428</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>67322</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>54908</v>
+        <v>55521</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>78042</v>
+        <v>78000</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5231285131133407</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4266677920880249</v>
+        <v>0.4314305379050579</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6064311700628322</v>
+        <v>0.6061029326415206</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -2342,19 +2342,19 @@
         <v>17781</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11089</v>
+        <v>11381</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23976</v>
+        <v>24675</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3792224126328619</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2365039335839976</v>
+        <v>0.2427259795055534</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5113539107293594</v>
+        <v>0.5262477079860814</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>85</v>
@@ -2363,19 +2363,19 @@
         <v>85102</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>71487</v>
+        <v>71074</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>97764</v>
+        <v>98874</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4846986814302919</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4071535684903151</v>
+        <v>0.4048001810325599</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5568133748448628</v>
+        <v>0.5631329104823506</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>23647</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16204</v>
+        <v>15937</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>32885</v>
+        <v>33471</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1837511397344297</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.125917331037166</v>
+        <v>0.1238405941212995</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2555378142915806</v>
+        <v>0.2600874309551958</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>11</v>
@@ -2413,19 +2413,19 @@
         <v>11766</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6470</v>
+        <v>6295</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>18680</v>
+        <v>18346</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2509294307980786</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1379798542268637</v>
+        <v>0.1342550812629299</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3984043155825454</v>
+        <v>0.3912821352490919</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>36</v>
@@ -2434,19 +2434,19 @@
         <v>35412</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>26191</v>
+        <v>26142</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>46653</v>
+        <v>46101</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2016909658412535</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1491710052096213</v>
+        <v>0.1488889546279958</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2657091195798278</v>
+        <v>0.2625665227453175</v>
       </c>
     </row>
     <row r="28">
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6309</v>
+        <v>5604</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03436511523665171</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1186565836797357</v>
+        <v>0.1053961256974112</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3728</v>
+        <v>2811</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.135231963966617</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5660683223069467</v>
+        <v>0.4269226771640272</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -2580,19 +2580,19 @@
         <v>2718</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8159</v>
+        <v>7413</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04548003958272239</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01481099137427412</v>
+        <v>0.01459296825535182</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1365261267759089</v>
+        <v>0.1240540398289921</v>
       </c>
     </row>
     <row r="30">
@@ -2609,19 +2609,19 @@
         <v>14233</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8070</v>
+        <v>8654</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20860</v>
+        <v>20837</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.267664454565504</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1517753385435229</v>
+        <v>0.1627439457304427</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3923056023884209</v>
+        <v>0.3918802968005435</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3993</v>
+        <v>3989</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1573368950925191</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6063803084927422</v>
+        <v>0.6057714927217447</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>16</v>
@@ -2651,19 +2651,19 @@
         <v>15269</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8458</v>
+        <v>9672</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>22029</v>
+        <v>22417</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2555070163955879</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1415348770821502</v>
+        <v>0.1618452412623593</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3686336960840861</v>
+        <v>0.3751242994043539</v>
       </c>
     </row>
     <row r="31">
@@ -2680,19 +2680,19 @@
         <v>27708</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20727</v>
+        <v>21148</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>34602</v>
+        <v>34607</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5210872487342396</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3898075064004228</v>
+        <v>0.397724752222856</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6507524838127683</v>
+        <v>0.6508391108145053</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2701,7 +2701,7 @@
         <v>4658</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1806</v>
+        <v>1793</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>6585</v>
@@ -2710,7 +2710,7 @@
         <v>0.7074311409408639</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2742821258535353</v>
+        <v>0.2722813575296636</v>
       </c>
       <c r="P31" s="6" t="n">
         <v>1</v>
@@ -2722,19 +2722,19 @@
         <v>32366</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>24758</v>
+        <v>24780</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>40137</v>
+        <v>39311</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5416212327964747</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.414306031772906</v>
+        <v>0.4146762434539327</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6716639367039826</v>
+        <v>0.6578294066126756</v>
       </c>
     </row>
     <row r="32">
@@ -2751,19 +2751,19 @@
         <v>9405</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5114</v>
+        <v>4968</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16516</v>
+        <v>16444</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1768831814636047</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09617052909170783</v>
+        <v>0.09342911807438399</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3106079101647872</v>
+        <v>0.3092597619073981</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2785,19 +2785,19 @@
         <v>9405</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5044</v>
+        <v>4676</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15758</v>
+        <v>16561</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1573917112252151</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08441246189658548</v>
+        <v>0.07824338885786417</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2636920725200368</v>
+        <v>0.277130633515516</v>
       </c>
     </row>
     <row r="33">
@@ -2889,19 +2889,19 @@
         <v>2811</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>852</v>
+        <v>786</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7398</v>
+        <v>7172</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1240975080508501</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03761478513630213</v>
+        <v>0.03467511829249194</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3265487480269184</v>
+        <v>0.3165777666221143</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -2923,19 +2923,19 @@
         <v>2811</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7743</v>
+        <v>7164</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1030195786865974</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02962813044942131</v>
+        <v>0.03013033103501305</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2837498144720917</v>
+        <v>0.2625312601862223</v>
       </c>
     </row>
     <row r="35">
@@ -2952,19 +2952,19 @@
         <v>4922</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1649</v>
+        <v>1830</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10049</v>
+        <v>9884</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2172862941092616</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07278350134252826</v>
+        <v>0.08079333785878975</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4435894630284357</v>
+        <v>0.4362852034185395</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -2986,19 +2986,19 @@
         <v>4922</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1758</v>
+        <v>1677</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>9688</v>
+        <v>10585</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1803802737468014</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06442928495947971</v>
+        <v>0.06144630162049252</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3550156440116674</v>
+        <v>0.3879040207992647</v>
       </c>
     </row>
     <row r="36">
@@ -3015,19 +3015,19 @@
         <v>7640</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3831</v>
+        <v>3827</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13439</v>
+        <v>12891</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.337241393147838</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1691296887141351</v>
+        <v>0.168942645575481</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5932415125001657</v>
+        <v>0.569022628536716</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -3057,19 +3057,19 @@
         <v>9830</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4946</v>
+        <v>5162</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>15176</v>
+        <v>15171</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3602189012466546</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1812414796435899</v>
+        <v>0.1891520357439838</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5561562098141014</v>
+        <v>0.5559487770532249</v>
       </c>
     </row>
     <row r="37">
@@ -3086,19 +3086,19 @@
         <v>7280</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3577</v>
+        <v>3500</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>11906</v>
+        <v>11819</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3213748046920503</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1579075253067312</v>
+        <v>0.1545097320071117</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5255461067868148</v>
+        <v>0.5217001843778749</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2</v>
@@ -3128,19 +3128,19 @@
         <v>9725</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5480</v>
+        <v>4839</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>15348</v>
+        <v>14794</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3563812463199466</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2008266156717368</v>
+        <v>0.1773288246654165</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5624620457235957</v>
+        <v>0.5421603726824874</v>
       </c>
     </row>
     <row r="38">
@@ -3232,19 +3232,19 @@
         <v>56056</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>42806</v>
+        <v>42094</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>71677</v>
+        <v>72603</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04051960713749275</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03094203477931582</v>
+        <v>0.03042711351279731</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.05181115885490393</v>
+        <v>0.05248029570981885</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>47</v>
@@ -3253,19 +3253,19 @@
         <v>47194</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>35521</v>
+        <v>35397</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>62105</v>
+        <v>61105</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.05466554507205043</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.04114450064240743</v>
+        <v>0.04100007891630292</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.07193685769190881</v>
+        <v>0.07077806616992886</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>101</v>
@@ -3274,19 +3274,19 @@
         <v>103250</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>85043</v>
+        <v>85651</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>125346</v>
+        <v>125091</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.04595526070626757</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03785155746756642</v>
+        <v>0.0381219609502538</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.05578981086327366</v>
+        <v>0.05567619078493789</v>
       </c>
     </row>
     <row r="40">
@@ -3303,19 +3303,19 @@
         <v>516578</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>483631</v>
+        <v>481124</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>555762</v>
+        <v>553754</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3734037997222054</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3495879868338956</v>
+        <v>0.3477760941765265</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4017272464653867</v>
+        <v>0.4002759809044142</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>295</v>
@@ -3324,19 +3324,19 @@
         <v>302954</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>276254</v>
+        <v>274507</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>330533</v>
+        <v>332210</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3509134986415854</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3199861169043852</v>
+        <v>0.3179634430225631</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3828580724721246</v>
+        <v>0.3848004908363523</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>805</v>
@@ -3345,19 +3345,19 @@
         <v>819533</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>770787</v>
+        <v>772365</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>862663</v>
+        <v>863640</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3647617792427401</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3430657879149576</v>
+        <v>0.3437680263186272</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3839584099116888</v>
+        <v>0.3843931342814563</v>
       </c>
     </row>
     <row r="41">
@@ -3374,19 +3374,19 @@
         <v>539879</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>504871</v>
+        <v>505576</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>574223</v>
+        <v>576835</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3902466234969971</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3649408964771778</v>
+        <v>0.3654510389525673</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4150719851472914</v>
+        <v>0.4169598496098112</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>353</v>
@@ -3395,19 +3395,19 @@
         <v>359231</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>331356</v>
+        <v>329812</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>386766</v>
+        <v>388500</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.4160998444224285</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3838109551701237</v>
+        <v>0.3820233667947717</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4479938117412589</v>
+        <v>0.4500017644888622</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>877</v>
@@ -3416,19 +3416,19 @@
         <v>899111</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>857610</v>
+        <v>848936</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>949308</v>
+        <v>944461</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.4001808642124424</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3817096772335616</v>
+        <v>0.3778487798948141</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4225229424056313</v>
+        <v>0.420365389836263</v>
       </c>
     </row>
     <row r="42">
@@ -3445,19 +3445,19 @@
         <v>270917</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>239479</v>
+        <v>242404</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>299182</v>
+        <v>303443</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1958299696433048</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1731047687364199</v>
+        <v>0.1752192171451468</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2162605524372919</v>
+        <v>0.2193408799635775</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>150</v>
@@ -3466,19 +3466,19 @@
         <v>153950</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>132606</v>
+        <v>133022</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>176189</v>
+        <v>178889</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1783211118639356</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1535982154552338</v>
+        <v>0.1540804137721732</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2040802263719613</v>
+        <v>0.2072077160442669</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>409</v>
@@ -3487,19 +3487,19 @@
         <v>424867</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>391045</v>
+        <v>392284</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>463907</v>
+        <v>468606</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1891020958385499</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1740482272193837</v>
+        <v>0.1745996439926921</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2064780530220858</v>
+        <v>0.2085694020742133</v>
       </c>
     </row>
     <row r="43">
@@ -3834,19 +3834,19 @@
         <v>5276</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1875</v>
+        <v>1915</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11968</v>
+        <v>10778</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03194501754120038</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01135592611394523</v>
+        <v>0.01159316890472637</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07247167992573954</v>
+        <v>0.06526642402122963</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7938</v>
+        <v>7873</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01515865713681664</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05400026297625363</v>
+        <v>0.05355641391545053</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3876,19 +3876,19 @@
         <v>7504</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3088</v>
+        <v>3299</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14749</v>
+        <v>15111</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0240398613322121</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009894557505249398</v>
+        <v>0.01056879069255287</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04725221704985291</v>
+        <v>0.04841216552361479</v>
       </c>
     </row>
     <row r="5">
@@ -3905,19 +3905,19 @@
         <v>38320</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28816</v>
+        <v>28163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50891</v>
+        <v>49656</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2320366947892485</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.174489579281717</v>
+        <v>0.170534992528881</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3081588480993842</v>
+        <v>0.3006792241123935</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -3926,19 +3926,19 @@
         <v>28081</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19091</v>
+        <v>20039</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39085</v>
+        <v>38830</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1910360235779089</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1298722304491315</v>
+        <v>0.1363269986743573</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2658939656125941</v>
+        <v>0.2641616014984881</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -3947,19 +3947,19 @@
         <v>66401</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51667</v>
+        <v>53060</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81275</v>
+        <v>81319</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2127283573777411</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.165525513738996</v>
+        <v>0.1699873868731732</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2603791069318028</v>
+        <v>0.2605200494216368</v>
       </c>
     </row>
     <row r="6">
@@ -3976,19 +3976,19 @@
         <v>73053</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>60870</v>
+        <v>61293</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86018</v>
+        <v>86385</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4423597405212414</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3685824762267913</v>
+        <v>0.371144909734711</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5208643925175693</v>
+        <v>0.5230834381716307</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>69</v>
@@ -3997,19 +3997,19 @@
         <v>71439</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58150</v>
+        <v>59352</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>82890</v>
+        <v>84148</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.485996835426876</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3955919307367983</v>
+        <v>0.4037668089161487</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5638951017442477</v>
+        <v>0.5724547321269725</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>142</v>
@@ -4018,19 +4018,19 @@
         <v>144493</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>127281</v>
+        <v>127418</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>161344</v>
+        <v>161254</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4629096419546339</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4077696784970533</v>
+        <v>0.4082076661424085</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5168964252625786</v>
+        <v>0.5166080112880581</v>
       </c>
     </row>
     <row r="7">
@@ -4047,19 +4047,19 @@
         <v>48496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37956</v>
+        <v>37920</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61256</v>
+        <v>61103</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2936585471483097</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2298368634746589</v>
+        <v>0.2296155769071267</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3709217863757848</v>
+        <v>0.3699982225149073</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -4068,19 +4068,19 @@
         <v>45246</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34486</v>
+        <v>34434</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57088</v>
+        <v>56749</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3078084838583985</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2346046275212889</v>
+        <v>0.2342561748664534</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3883660581860227</v>
+        <v>0.3860581235469283</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -4089,19 +4089,19 @@
         <v>93743</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78272</v>
+        <v>77717</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111098</v>
+        <v>110678</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3003221393354129</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2507600432092009</v>
+        <v>0.2489823656915183</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3559236886095393</v>
+        <v>0.3545782636965362</v>
       </c>
     </row>
     <row r="8">
@@ -4193,19 +4193,19 @@
         <v>5904</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2227</v>
+        <v>2266</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12385</v>
+        <v>12807</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01690907094292666</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006378247973363814</v>
+        <v>0.006490245886921497</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03547057743623097</v>
+        <v>0.03667997535376356</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4995</v>
+        <v>6474</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004014034895383743</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02009922890608382</v>
+        <v>0.02605029711538458</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -4235,19 +4235,19 @@
         <v>6902</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2815</v>
+        <v>2820</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13489</v>
+        <v>13804</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01154707339944269</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004709165329754153</v>
+        <v>0.004717400925051001</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02256786439910969</v>
+        <v>0.02309582359246061</v>
       </c>
     </row>
     <row r="10">
@@ -4264,19 +4264,19 @@
         <v>51235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38677</v>
+        <v>39548</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65353</v>
+        <v>66588</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1467351592627364</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1107704020435108</v>
+        <v>0.1132650389497769</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1871710562942309</v>
+        <v>0.1907067060950416</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -4285,19 +4285,19 @@
         <v>37043</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26811</v>
+        <v>26784</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51272</v>
+        <v>48567</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1490456018058061</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1078757396253978</v>
+        <v>0.1077663219433174</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2062959348788202</v>
+        <v>0.1954141695187934</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -4306,19 +4306,19 @@
         <v>88277</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70114</v>
+        <v>72192</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106934</v>
+        <v>108241</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1476958845522683</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1173063677294144</v>
+        <v>0.1207831101116452</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1789102993126816</v>
+        <v>0.1810963492936588</v>
       </c>
     </row>
     <row r="11">
@@ -4335,19 +4335,19 @@
         <v>203637</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>183981</v>
+        <v>184147</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>221624</v>
+        <v>221674</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5832118371692281</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5269173827118552</v>
+        <v>0.5273945383351045</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6347289004060532</v>
+        <v>0.6348718781104239</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>166</v>
@@ -4356,19 +4356,19 @@
         <v>178197</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>164126</v>
+        <v>163597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>193357</v>
+        <v>192233</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7169939444970699</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6603755402941039</v>
+        <v>0.6582466278241222</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7779896103926343</v>
+        <v>0.7734672261346028</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>360</v>
@@ -4377,19 +4377,19 @@
         <v>381833</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>357625</v>
+        <v>355152</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>405242</v>
+        <v>404489</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6388409434554941</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5983386679291208</v>
+        <v>0.594200202174736</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6780064998950079</v>
+        <v>0.6767451131467458</v>
       </c>
     </row>
     <row r="12">
@@ -4406,19 +4406,19 @@
         <v>88389</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>73645</v>
+        <v>74113</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106785</v>
+        <v>107757</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2531439326251089</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2109194720027084</v>
+        <v>0.2122580173852318</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3058312499092832</v>
+        <v>0.3086149649666594</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -4427,19 +4427,19 @@
         <v>32296</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22160</v>
+        <v>22450</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>43999</v>
+        <v>44427</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1299464188017403</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08916189092050857</v>
+        <v>0.09032911226688518</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1770351503157516</v>
+        <v>0.1787560017390455</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>118</v>
@@ -4448,19 +4448,19 @@
         <v>120685</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>100973</v>
+        <v>103030</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>140063</v>
+        <v>141403</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2019160985927949</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1689375268757047</v>
+        <v>0.1723786928896543</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2343380337741991</v>
+        <v>0.2365797360369253</v>
       </c>
     </row>
     <row r="13">
@@ -4552,19 +4552,19 @@
         <v>4616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>955</v>
+        <v>1824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10370</v>
+        <v>10480</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01422798797701961</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002942438184820167</v>
+        <v>0.005623394902072762</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03196747576798973</v>
+        <v>0.03230583044692253</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -4573,19 +4573,19 @@
         <v>3008</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8113</v>
+        <v>8242</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01226253024401942</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003917821315649408</v>
+        <v>0.003903198121373436</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03307291589597698</v>
+        <v>0.03359563010228704</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -4594,19 +4594,19 @@
         <v>7624</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3731</v>
+        <v>3737</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15270</v>
+        <v>14996</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01338167730860416</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006548990096948096</v>
+        <v>0.006559590129317483</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02680204745669994</v>
+        <v>0.02632140886383344</v>
       </c>
     </row>
     <row r="15">
@@ -4623,19 +4623,19 @@
         <v>55199</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>42501</v>
+        <v>43109</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>69404</v>
+        <v>70316</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1701531184119212</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1310110756182777</v>
+        <v>0.1328853602062912</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2139431989657099</v>
+        <v>0.2167534883682768</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>31</v>
@@ -4644,19 +4644,19 @@
         <v>33845</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24032</v>
+        <v>24018</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46939</v>
+        <v>46029</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1379636766458082</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09796103758418094</v>
+        <v>0.09790718757380025</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1913406056006611</v>
+        <v>0.1876304523635167</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>85</v>
@@ -4665,19 +4665,19 @@
         <v>89044</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>72912</v>
+        <v>72110</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>108426</v>
+        <v>107550</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1562925975166613</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1279774118988077</v>
+        <v>0.1265693576505961</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1903120171870191</v>
+        <v>0.1887759442739492</v>
       </c>
     </row>
     <row r="16">
@@ -4694,19 +4694,19 @@
         <v>213215</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>194977</v>
+        <v>194129</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>230738</v>
+        <v>228915</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6572468920825154</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6010278624592057</v>
+        <v>0.5984144054184242</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.711263455576551</v>
+        <v>0.7056433278964329</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>140</v>
@@ -4715,19 +4715,19 @@
         <v>148119</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132743</v>
+        <v>131820</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>164152</v>
+        <v>162711</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6037819265443894</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.54110310437153</v>
+        <v>0.5373395651147793</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6691383318796879</v>
+        <v>0.6632609528776101</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>342</v>
@@ -4736,19 +4736,19 @@
         <v>361334</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>336658</v>
+        <v>337854</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>384535</v>
+        <v>384369</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6342252976917212</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5909127516014653</v>
+        <v>0.5930131512547422</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6749488554280314</v>
+        <v>0.6746575690428013</v>
       </c>
     </row>
     <row r="17">
@@ -4765,19 +4765,19 @@
         <v>51377</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39182</v>
+        <v>39701</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67913</v>
+        <v>66273</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1583720015285438</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.120781107711746</v>
+        <v>0.1223816736719415</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2093442842524298</v>
+        <v>0.2042902846174313</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>57</v>
@@ -4786,19 +4786,19 @@
         <v>60346</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48526</v>
+        <v>47557</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75488</v>
+        <v>75059</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.245991866565783</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1978059123242626</v>
+        <v>0.1938564671684486</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3077133737916908</v>
+        <v>0.3059644707901433</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>105</v>
@@ -4807,19 +4807,19 @@
         <v>111723</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>94174</v>
+        <v>93891</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>131793</v>
+        <v>133268</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1961004274830133</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1652976957457797</v>
+        <v>0.1648007009117227</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2313268450343436</v>
+        <v>0.2339159863945637</v>
       </c>
     </row>
     <row r="18">
@@ -4924,19 +4924,19 @@
         <v>6610</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2215</v>
+        <v>2366</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13309</v>
+        <v>13741</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02748918640079329</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009209288225845033</v>
+        <v>0.009838009067510244</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05534749903711409</v>
+        <v>0.05714490435320243</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -4945,19 +4945,19 @@
         <v>6610</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2444</v>
+        <v>2327</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14098</v>
+        <v>13303</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01270584638336089</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004697377187769187</v>
+        <v>0.004472926219561776</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02709943716128801</v>
+        <v>0.02557101515188187</v>
       </c>
     </row>
     <row r="20">
@@ -4974,19 +4974,19 @@
         <v>36079</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25596</v>
+        <v>25949</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49732</v>
+        <v>50137</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1289534118137621</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09148668589522437</v>
+        <v>0.09274547296885038</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.177752845242193</v>
+        <v>0.1791993705836416</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -4995,19 +4995,19 @@
         <v>32746</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22397</v>
+        <v>22066</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46251</v>
+        <v>45714</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1361792099283666</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09314042125288417</v>
+        <v>0.09176240840456995</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1923403606970392</v>
+        <v>0.1901087141889313</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>61</v>
@@ -5016,19 +5016,19 @@
         <v>68825</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54282</v>
+        <v>52906</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>86841</v>
+        <v>84854</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1322932662387986</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1043380694803345</v>
+        <v>0.1016935675422938</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1669227613978943</v>
+        <v>0.1631040182201204</v>
       </c>
     </row>
     <row r="21">
@@ -5045,19 +5045,19 @@
         <v>194813</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>178005</v>
+        <v>177158</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>209485</v>
+        <v>209304</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6963029359776347</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6362270927371566</v>
+        <v>0.6332000388724653</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7487426126872275</v>
+        <v>0.7480967801113046</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>142</v>
@@ -5066,19 +5066,19 @@
         <v>163054</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>146515</v>
+        <v>144934</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>178116</v>
+        <v>179009</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6780792871124902</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6093002810627494</v>
+        <v>0.6027253470254739</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7407163714907516</v>
+        <v>0.7444282460901739</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>313</v>
@@ -5087,19 +5087,19 @@
         <v>357867</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>335566</v>
+        <v>334366</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>380165</v>
+        <v>381133</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6878797371368661</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6450135053225408</v>
+        <v>0.6427071717369729</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7307389153224458</v>
+        <v>0.7326001037253456</v>
       </c>
     </row>
     <row r="22">
@@ -5116,19 +5116,19 @@
         <v>48890</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36727</v>
+        <v>36430</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62418</v>
+        <v>64614</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1747436522086031</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1312695923440285</v>
+        <v>0.1302095703959396</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2230945930736422</v>
+        <v>0.2309423136514572</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -5137,19 +5137,19 @@
         <v>38054</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25791</v>
+        <v>26023</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51105</v>
+        <v>51778</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1582523165583499</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1072530348461065</v>
+        <v>0.1082201547301655</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2125263076008575</v>
+        <v>0.2153228939419733</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -5158,19 +5158,19 @@
         <v>86944</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70099</v>
+        <v>69071</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106403</v>
+        <v>106746</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1671211502409744</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1347411832527733</v>
+        <v>0.1327659121599695</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2045246013531257</v>
+        <v>0.2051836229785099</v>
       </c>
     </row>
     <row r="23">
@@ -5262,19 +5262,19 @@
         <v>3068</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7300</v>
+        <v>8055</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01988737882317895</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0</v>
+        <v>0.006412992839260253</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04731697622517611</v>
+        <v>0.05221485792049891</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5097</v>
+        <v>5500</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01510185431132928</v>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07514097879082622</v>
+        <v>0.08108098912396131</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -5304,19 +5304,19 @@
         <v>4092</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10145</v>
+        <v>10247</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01842591968585768</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004702667595360918</v>
+        <v>0.004630842857040256</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0456765074617206</v>
+        <v>0.04613665672723018</v>
       </c>
     </row>
     <row r="25">
@@ -5333,19 +5333,19 @@
         <v>20982</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12444</v>
+        <v>12957</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32545</v>
+        <v>32594</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1360036755604475</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08066397451846957</v>
+        <v>0.08398667635469893</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2109563249958282</v>
+        <v>0.2112711388615755</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -5354,19 +5354,19 @@
         <v>6298</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2267</v>
+        <v>2129</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13044</v>
+        <v>12777</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0928453165312923</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03342937524558071</v>
+        <v>0.03139365089444467</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.192300740746937</v>
+        <v>0.1883710182406966</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -5375,19 +5375,19 @@
         <v>27280</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17134</v>
+        <v>17935</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39312</v>
+        <v>40532</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.12282347389211</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07714581185960279</v>
+        <v>0.08075210526405917</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1769999713207943</v>
+        <v>0.1824912005083203</v>
       </c>
     </row>
     <row r="26">
@@ -5404,19 +5404,19 @@
         <v>104054</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91419</v>
+        <v>91424</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>116202</v>
+        <v>115650</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6744733622198016</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5925731111742448</v>
+        <v>0.5926034521808649</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7532114665247817</v>
+        <v>0.7496365761650914</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>39</v>
@@ -5425,19 +5425,19 @@
         <v>43402</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34140</v>
+        <v>35109</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51713</v>
+        <v>51919</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6398698010552327</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5033206650226861</v>
+        <v>0.5176150041583589</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7624024662117697</v>
+        <v>0.7654399727790629</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>136</v>
@@ -5446,19 +5446,19 @@
         <v>147456</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>131343</v>
+        <v>132216</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>161259</v>
+        <v>162327</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.66390572422681</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5913575353109227</v>
+        <v>0.5952900867607814</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7260511652517393</v>
+        <v>0.7308605839034534</v>
       </c>
     </row>
     <row r="27">
@@ -5475,19 +5475,19 @@
         <v>26171</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17191</v>
+        <v>17918</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>36446</v>
+        <v>36559</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.169635583396572</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1114316781824337</v>
+        <v>0.1161407216615446</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2362420336799372</v>
+        <v>0.2369755860128226</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>14</v>
@@ -5496,19 +5496,19 @@
         <v>17105</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9758</v>
+        <v>9677</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>26598</v>
+        <v>25721</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2521830281021457</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.143860798644544</v>
+        <v>0.1426628159200619</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.392128548302381</v>
+        <v>0.3792104842626835</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>39</v>
@@ -5517,19 +5517,19 @@
         <v>43276</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>32349</v>
+        <v>31529</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>57291</v>
+        <v>56017</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1948448821952222</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1456473522793561</v>
+        <v>0.1419579753117596</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2579470661021479</v>
+        <v>0.2522088466644736</v>
       </c>
     </row>
     <row r="28">
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6311</v>
+        <v>7166</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03844568817594124</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.12313598018108</v>
+        <v>0.1398074839233527</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7098</v>
+        <v>6387</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02804710012452324</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1010300587658683</v>
+        <v>0.09090820847112867</v>
       </c>
     </row>
     <row r="30">
@@ -5684,19 +5684,19 @@
         <v>7224</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2903</v>
+        <v>3029</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14023</v>
+        <v>14696</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1409516558812696</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05664802328278454</v>
+        <v>0.05910268688275779</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2735994492998888</v>
+        <v>0.2867222207369088</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -5705,19 +5705,19 @@
         <v>2997</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>891</v>
+        <v>926</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7810</v>
+        <v>7664</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1577182252895625</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04689150746536409</v>
+        <v>0.04873130559913264</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4109644769385687</v>
+        <v>0.4032977780915566</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -5726,19 +5726,19 @@
         <v>10221</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4987</v>
+        <v>4653</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>18589</v>
+        <v>17972</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1454865896172575</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07098089832639491</v>
+        <v>0.06622376008019898</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2645893284520002</v>
+        <v>0.2558050735118225</v>
       </c>
     </row>
     <row r="31">
@@ -5755,19 +5755,19 @@
         <v>31845</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24037</v>
+        <v>23511</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39624</v>
+        <v>39580</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6213265537336933</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4689710446049681</v>
+        <v>0.4587148401762272</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7730975187538861</v>
+        <v>0.772236619695423</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -5776,19 +5776,19 @@
         <v>7552</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3579</v>
+        <v>3770</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12201</v>
+        <v>12571</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.397418233723405</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1883322588306081</v>
+        <v>0.1983697619824119</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6420668326624137</v>
+        <v>0.6615416415368077</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>34</v>
@@ -5797,19 +5797,19 @@
         <v>39398</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30246</v>
+        <v>30117</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>49187</v>
+        <v>48749</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5607650059622816</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4304997471847358</v>
+        <v>0.4286759816050322</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.700097805387863</v>
+        <v>0.6938708925455318</v>
       </c>
     </row>
     <row r="32">
@@ -5826,19 +5826,19 @@
         <v>10214</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5098</v>
+        <v>4577</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17521</v>
+        <v>17648</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1992761022090958</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0994569362320975</v>
+        <v>0.08930337322088895</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3418498426171949</v>
+        <v>0.3443289157350622</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -5847,19 +5847,19 @@
         <v>8454</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4308</v>
+        <v>3904</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13123</v>
+        <v>12708</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4448635409870325</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2267098643967323</v>
+        <v>0.2054630090651538</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6905948483699674</v>
+        <v>0.6687321555255291</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>16</v>
@@ -5868,19 +5868,19 @@
         <v>18667</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>11862</v>
+        <v>11692</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>28033</v>
+        <v>28622</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2657013042959377</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1688383659751489</v>
+        <v>0.1664206499018359</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3990027798454374</v>
+        <v>0.4073911044753212</v>
       </c>
     </row>
     <row r="33">
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5292</v>
+        <v>5223</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04219093902321837</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2137436437523187</v>
+        <v>0.2109433149458307</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5384</v>
+        <v>5296</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03628644308255334</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1870423615204618</v>
+        <v>0.1839869431997857</v>
       </c>
     </row>
     <row r="35">
@@ -6035,19 +6035,19 @@
         <v>3027</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8218</v>
+        <v>7477</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.122261182680371</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03374040744331128</v>
+        <v>0.03385593310801</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3319248006502102</v>
+        <v>0.3020120809092315</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -6077,19 +6077,19 @@
         <v>6051</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2237</v>
+        <v>2098</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>12955</v>
+        <v>11935</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2101924729952289</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07769283214840184</v>
+        <v>0.07286342651658015</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4500407361659345</v>
+        <v>0.4145898931020747</v>
       </c>
     </row>
     <row r="36">
@@ -6106,19 +6106,19 @@
         <v>9915</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5335</v>
+        <v>5433</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15319</v>
+        <v>15192</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4004744696829137</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.215491541870597</v>
+        <v>0.2194506647513924</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6187446002936289</v>
+        <v>0.6136130593549952</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -6148,19 +6148,19 @@
         <v>10920</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5912</v>
+        <v>6356</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>16766</v>
+        <v>16898</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.379334899782108</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2053534163549806</v>
+        <v>0.2207954776255531</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5824014938954384</v>
+        <v>0.5870091335350838</v>
       </c>
     </row>
     <row r="37">
@@ -6177,19 +6177,19 @@
         <v>10772</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6256</v>
+        <v>6402</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>16191</v>
+        <v>16145</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4350734086134969</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2527041394580891</v>
+        <v>0.2585937366515382</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6539792698992755</v>
+        <v>0.6521283456626242</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -6211,19 +6211,19 @@
         <v>10772</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5395</v>
+        <v>5368</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>16629</v>
+        <v>16738</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3741861841401097</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1873990504761943</v>
+        <v>0.1864701690923242</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.577664951652535</v>
+        <v>0.5814285177190707</v>
       </c>
     </row>
     <row r="38">
@@ -6315,19 +6315,19 @@
         <v>21878</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>13700</v>
+        <v>13767</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>32300</v>
+        <v>32274</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01622085114600613</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01015734261267843</v>
+        <v>0.01020696543054858</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02394716121339325</v>
+        <v>0.02392850639984714</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>13</v>
@@ -6336,19 +6336,19 @@
         <v>13869</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>7789</v>
+        <v>7606</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>23602</v>
+        <v>22516</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0142655952155444</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.008011542904456657</v>
+        <v>0.00782388466083817</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.0242776494344847</v>
+        <v>0.02316013487593115</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>35</v>
@@ -6357,19 +6357,19 @@
         <v>35747</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>25277</v>
+        <v>25523</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>50795</v>
+        <v>48606</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01540185846656239</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01089081399600465</v>
+        <v>0.01099662410414155</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02188544642358042</v>
+        <v>0.02094224962372895</v>
       </c>
     </row>
     <row r="40">
@@ -6386,19 +6386,19 @@
         <v>212065</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>186057</v>
+        <v>184295</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>240771</v>
+        <v>243361</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1572268654444911</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1379441927181655</v>
+        <v>0.1366378191287119</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1785097602612026</v>
+        <v>0.1804297476717971</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>132</v>
@@ -6407,19 +6407,19 @@
         <v>144034</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>122479</v>
+        <v>122877</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>168275</v>
+        <v>169130</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1481568899507146</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1259851987284359</v>
+        <v>0.1263946734033532</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1730911329002981</v>
+        <v>0.17397143925403</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>332</v>
@@ -6428,19 +6428,19 @@
         <v>356099</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>321082</v>
+        <v>319468</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>391401</v>
+        <v>394862</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1534277497295561</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1383405051178882</v>
+        <v>0.1376448361610953</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1686378598830051</v>
+        <v>0.1701289279994357</v>
       </c>
     </row>
     <row r="41">
@@ -6457,19 +6457,19 @@
         <v>830533</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>793166</v>
+        <v>792974</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>867108</v>
+        <v>864639</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.6157641536452841</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.5880602002926667</v>
+        <v>0.5879175799408751</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.6428812303964364</v>
+        <v>0.6410506153015779</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>564</v>
@@ -6478,19 +6478,19 @@
         <v>612768</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>581995</v>
+        <v>578747</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>643385</v>
+        <v>643215</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.6303078583135657</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5986535137287878</v>
+        <v>0.5953132609571802</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.6618006065131785</v>
+        <v>0.6616258051845502</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1337</v>
@@ -6499,19 +6499,19 @@
         <v>1443301</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1389354</v>
+        <v>1398132</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1488438</v>
+        <v>1494061</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.6218560352602406</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5986127589926595</v>
+        <v>0.6023947575943585</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.6413036370801812</v>
+        <v>0.6437260781964759</v>
       </c>
     </row>
     <row r="42">
@@ -6528,19 +6528,19 @@
         <v>284308</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>255071</v>
+        <v>256787</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>314832</v>
+        <v>317420</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2107881297642186</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1891116945424073</v>
+        <v>0.1903840445137511</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2334188268448797</v>
+        <v>0.2353382398537144</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>185</v>
@@ -6549,19 +6549,19 @@
         <v>201502</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>176622</v>
+        <v>176371</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>228653</v>
+        <v>231613</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2072696565201753</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1816773522516782</v>
+        <v>0.1814189990627535</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2351983228053117</v>
+        <v>0.2382425927136789</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>456</v>
@@ -6570,19 +6570,19 @@
         <v>485810</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>447795</v>
+        <v>444309</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>530729</v>
+        <v>525677</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2093143565436409</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1929354065563687</v>
+        <v>0.1914336199518372</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2286681231016595</v>
+        <v>0.2264915615467957</v>
       </c>
     </row>
     <row r="43">
@@ -6917,19 +6917,19 @@
         <v>7217</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2987</v>
+        <v>3038</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13233</v>
+        <v>14260</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0517611589023217</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02141843770226056</v>
+        <v>0.02178805057719054</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09490581199229436</v>
+        <v>0.1022666020615163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -6938,19 +6938,19 @@
         <v>5254</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1869</v>
+        <v>1858</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12002</v>
+        <v>11488</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05030743921124921</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01789670352845053</v>
+        <v>0.01779381024112908</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1149181861742917</v>
+        <v>0.1099951763288296</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -6959,19 +6959,19 @@
         <v>12472</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6475</v>
+        <v>6889</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21028</v>
+        <v>21026</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05113859399787171</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02655032404599526</v>
+        <v>0.0282492168202059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0862235301982715</v>
+        <v>0.08621378883264766</v>
       </c>
     </row>
     <row r="5">
@@ -6988,19 +6988,19 @@
         <v>38415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28056</v>
+        <v>28744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49289</v>
+        <v>50364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2755014313725741</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2012121476009037</v>
+        <v>0.2061465843975484</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3534911064686581</v>
+        <v>0.3611971684631889</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -7009,19 +7009,19 @@
         <v>34061</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24692</v>
+        <v>24334</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43761</v>
+        <v>43580</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3261188646903085</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2364147270094955</v>
+        <v>0.2329938520764517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4190019641291998</v>
+        <v>0.4172648341868324</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>70</v>
@@ -7030,19 +7030,19 @@
         <v>72475</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57509</v>
+        <v>58870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87271</v>
+        <v>87319</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2971786761196067</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2358103492782511</v>
+        <v>0.2413902712704761</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3578461007611453</v>
+        <v>0.3580454773343641</v>
       </c>
     </row>
     <row r="6">
@@ -7059,19 +7059,19 @@
         <v>55470</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43991</v>
+        <v>45003</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67736</v>
+        <v>68669</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3978169554411686</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3154944655118408</v>
+        <v>0.3227517967150316</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4857886837315878</v>
+        <v>0.492478789655054</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -7080,19 +7080,19 @@
         <v>47301</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37217</v>
+        <v>36970</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57588</v>
+        <v>56721</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4528964604812424</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3563438094177109</v>
+        <v>0.3539750072318594</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5513859371149393</v>
+        <v>0.5430826916642034</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>100</v>
@@ -7101,19 +7101,19 @@
         <v>102771</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>88038</v>
+        <v>87411</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>117001</v>
+        <v>118206</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4214051113993011</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.360991822868469</v>
+        <v>0.358420270499277</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4797512604926407</v>
+        <v>0.4846927994260224</v>
       </c>
     </row>
     <row r="7">
@@ -7130,19 +7130,19 @@
         <v>38334</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28414</v>
+        <v>28152</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50706</v>
+        <v>48950</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2749204542839356</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2037786271225346</v>
+        <v>0.2018997392221706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3636482637073595</v>
+        <v>0.3510586406534406</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -7151,19 +7151,19 @@
         <v>17826</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11492</v>
+        <v>11189</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26283</v>
+        <v>26953</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1706772356171999</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1100333058196188</v>
+        <v>0.1071312595279693</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2516476577550663</v>
+        <v>0.2580665641415474</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -7172,19 +7172,19 @@
         <v>56160</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43209</v>
+        <v>43891</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69830</v>
+        <v>69937</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2302776184832205</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.177176542594975</v>
+        <v>0.1799715241635213</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.286330713746501</v>
+        <v>0.2867718454760227</v>
       </c>
     </row>
     <row r="8">
@@ -7276,19 +7276,19 @@
         <v>4775</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1842</v>
+        <v>1823</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10533</v>
+        <v>9954</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01844065497245757</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007113740020736403</v>
+        <v>0.00704204737158908</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04067991241721947</v>
+        <v>0.03844365227908098</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -7297,19 +7297,19 @@
         <v>6756</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2876</v>
+        <v>2891</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12792</v>
+        <v>12913</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03200162987688488</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01362453603531073</v>
+        <v>0.01369210203062595</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06059320592092892</v>
+        <v>0.06116592021116835</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -7318,19 +7318,19 @@
         <v>11531</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5934</v>
+        <v>5816</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19160</v>
+        <v>19171</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02453146111133051</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01262420397612266</v>
+        <v>0.01237273158193848</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04076276094384883</v>
+        <v>0.04078607302715544</v>
       </c>
     </row>
     <row r="10">
@@ -7347,19 +7347,19 @@
         <v>62196</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48830</v>
+        <v>49749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77012</v>
+        <v>76494</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2402071851945906</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1885849851023916</v>
+        <v>0.1921339168316303</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2974245341182838</v>
+        <v>0.2954267402074457</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -7368,19 +7368,19 @@
         <v>47197</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35492</v>
+        <v>36774</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59361</v>
+        <v>61168</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2235562753284548</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1681129925889536</v>
+        <v>0.1741879609966748</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2811746748548943</v>
+        <v>0.2897363504740233</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>106</v>
@@ -7389,19 +7389,19 @@
         <v>109393</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90398</v>
+        <v>92330</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>128661</v>
+        <v>129401</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2327285588609213</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1923178679441632</v>
+        <v>0.1964276069591914</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2737203065763302</v>
+        <v>0.2752956577781697</v>
       </c>
     </row>
     <row r="11">
@@ -7418,19 +7418,19 @@
         <v>138081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>123005</v>
+        <v>120184</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>155231</v>
+        <v>153722</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5332779016572287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4750560590789933</v>
+        <v>0.4641594828017809</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5995151879066244</v>
+        <v>0.5936869533275593</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>118</v>
@@ -7439,19 +7439,19 @@
         <v>114274</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>99435</v>
+        <v>99301</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>128415</v>
+        <v>129308</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5412840710627546</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4709950410959286</v>
+        <v>0.4703604147192903</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6082636940058931</v>
+        <v>0.6124931213695053</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>251</v>
@@ -7460,19 +7460,19 @@
         <v>252355</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>230400</v>
+        <v>231001</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>274548</v>
+        <v>273801</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5368738102189438</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4901655751807133</v>
+        <v>0.491445279790563</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5840880889972774</v>
+        <v>0.5825000635605554</v>
       </c>
     </row>
     <row r="12">
@@ -7489,19 +7489,19 @@
         <v>53876</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41585</v>
+        <v>42008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>68911</v>
+        <v>68936</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2080742581757232</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1606056261336173</v>
+        <v>0.1622374941955154</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2661400244956748</v>
+        <v>0.2662361816960693</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>44</v>
@@ -7510,19 +7510,19 @@
         <v>42890</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31925</v>
+        <v>31968</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54402</v>
+        <v>55640</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2031580237319057</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1512211681310308</v>
+        <v>0.1514250460145317</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2576853983038618</v>
+        <v>0.2635486416340182</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>95</v>
@@ -7531,19 +7531,19 @@
         <v>96766</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>80997</v>
+        <v>80260</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>117118</v>
+        <v>114502</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2058661698088045</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1723167285734973</v>
+        <v>0.1707497643951343</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2491634397381787</v>
+        <v>0.243598633810118</v>
       </c>
     </row>
     <row r="13">
@@ -7635,19 +7635,19 @@
         <v>9048</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4639</v>
+        <v>4165</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15971</v>
+        <v>15947</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03427499086438802</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01757354923094069</v>
+        <v>0.01577561459215701</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06049762983074215</v>
+        <v>0.06040925720970464</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -7659,16 +7659,16 @@
         <v>1738</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9758</v>
+        <v>9799</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02067139627868184</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007913947012778989</v>
+        <v>0.007915475876149859</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04444178203740329</v>
+        <v>0.04462797544783339</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -7677,19 +7677,19 @@
         <v>13587</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7696</v>
+        <v>8328</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22130</v>
+        <v>22910</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02809812741355001</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01591560197252221</v>
+        <v>0.01722231873659256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0457658891439803</v>
+        <v>0.04737869385700616</v>
       </c>
     </row>
     <row r="15">
@@ -7706,19 +7706,19 @@
         <v>41562</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>31243</v>
+        <v>30855</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>55966</v>
+        <v>53984</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1574360679389473</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1183473271452879</v>
+        <v>0.1168808399047241</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2120017559953908</v>
+        <v>0.2044917865190712</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>36</v>
@@ -7727,19 +7727,19 @@
         <v>35236</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>26357</v>
+        <v>25058</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46837</v>
+        <v>45602</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1604824330371771</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1200433959022615</v>
+        <v>0.1141257338092403</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2133192707774135</v>
+        <v>0.2076948680314729</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>75</v>
@@ -7748,19 +7748,19 @@
         <v>76798</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>61106</v>
+        <v>61817</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>95152</v>
+        <v>94627</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1588193039001936</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1263687755601898</v>
+        <v>0.1278385376194189</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1967762867318104</v>
+        <v>0.1956909284598208</v>
       </c>
     </row>
     <row r="16">
@@ -7777,19 +7777,19 @@
         <v>146827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>130797</v>
+        <v>130877</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>163703</v>
+        <v>163037</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.55618250018659</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4954614877859713</v>
+        <v>0.4957644737419497</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6201099292235187</v>
+        <v>0.6175867160012422</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>133</v>
@@ -7798,19 +7798,19 @@
         <v>129605</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>117039</v>
+        <v>115625</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>143229</v>
+        <v>144590</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5902865698877398</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5330527192855792</v>
+        <v>0.5266130134372585</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6523371925771362</v>
+        <v>0.6585347407028652</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>271</v>
@@ -7819,19 +7819,19 @@
         <v>276432</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>253664</v>
+        <v>255227</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>296821</v>
+        <v>298471</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5716678324151179</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5245830874131515</v>
+        <v>0.5278163353374224</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6138329406522094</v>
+        <v>0.6172466743869008</v>
       </c>
     </row>
     <row r="17">
@@ -7848,19 +7848,19 @@
         <v>66554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51958</v>
+        <v>54679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>81171</v>
+        <v>83186</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2521064410100747</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1968182899864795</v>
+        <v>0.2071268033433405</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3074775320205302</v>
+        <v>0.3151095338765292</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -7869,19 +7869,19 @@
         <v>50183</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38424</v>
+        <v>38846</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62009</v>
+        <v>63434</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2285596007964014</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1750012062289066</v>
+        <v>0.1769226650680366</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2824195506160541</v>
+        <v>0.2889085866735505</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>114</v>
@@ -7890,19 +7890,19 @@
         <v>116737</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>98258</v>
+        <v>98038</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136033</v>
+        <v>136115</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2414147362711385</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2031993739938586</v>
+        <v>0.2027443591127945</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2813203413451153</v>
+        <v>0.2814897481307669</v>
       </c>
     </row>
     <row r="18">
@@ -7994,19 +7994,19 @@
         <v>7846</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3056</v>
+        <v>3693</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14795</v>
+        <v>16322</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02866552309090781</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0111644509198951</v>
+        <v>0.01349394573184966</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05405447888624249</v>
+        <v>0.05963472636466276</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -8018,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6258</v>
+        <v>6881</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00890425945436034</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02736811063233939</v>
+        <v>0.03009020680564871</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -8036,19 +8036,19 @@
         <v>9882</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4130</v>
+        <v>5060</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18722</v>
+        <v>18339</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01967069918662299</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008220665471168698</v>
+        <v>0.0100728206934325</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03726737283940343</v>
+        <v>0.03650444029586446</v>
       </c>
     </row>
     <row r="20">
@@ -8065,19 +8065,19 @@
         <v>53786</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41027</v>
+        <v>41086</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>70397</v>
+        <v>70605</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.196512126478425</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1498950532487764</v>
+        <v>0.1501117668062476</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2572018448245785</v>
+        <v>0.2579619863439724</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -8086,19 +8086,19 @@
         <v>38842</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27178</v>
+        <v>28112</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51403</v>
+        <v>50892</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1698665867206247</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1188539477769509</v>
+        <v>0.1229389215409793</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2247986069547332</v>
+        <v>0.222563717294413</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>80</v>
@@ -8107,19 +8107,19 @@
         <v>92628</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>74998</v>
+        <v>74293</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>111633</v>
+        <v>110099</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1843837554205756</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1492896459830224</v>
+        <v>0.147887113292873</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2222142209104643</v>
+        <v>0.2191599945507504</v>
       </c>
     </row>
     <row r="21">
@@ -8136,19 +8136,19 @@
         <v>161771</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>143921</v>
+        <v>142291</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>179465</v>
+        <v>178059</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5910468684639878</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5258310538225393</v>
+        <v>0.519877132288981</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6556966411650677</v>
+        <v>0.6505565533202503</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>139</v>
@@ -8157,19 +8157,19 @@
         <v>149721</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>135838</v>
+        <v>134364</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>165248</v>
+        <v>163410</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6547638767785042</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5940493837862079</v>
+        <v>0.5876046859152456</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7226677627568769</v>
+        <v>0.7146302334860659</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>284</v>
@@ -8178,19 +8178,19 @@
         <v>311492</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>290206</v>
+        <v>288441</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>332516</v>
+        <v>333978</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6200492278291533</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.577679284865904</v>
+        <v>0.5741641386129123</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6619002904160861</v>
+        <v>0.6648108155396456</v>
       </c>
     </row>
     <row r="22">
@@ -8207,19 +8207,19 @@
         <v>50300</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37310</v>
+        <v>37671</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64430</v>
+        <v>65063</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1837754819666794</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.136314347290338</v>
+        <v>0.1376362340228487</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2354029439867441</v>
+        <v>0.2377157533199984</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -8228,19 +8228,19 @@
         <v>38065</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26988</v>
+        <v>27959</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50741</v>
+        <v>50351</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1664652770465107</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1180251497362572</v>
+        <v>0.1222690179177263</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2219008266516674</v>
+        <v>0.2201982982060848</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>78</v>
@@ -8249,19 +8249,19 @@
         <v>88364</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>71228</v>
+        <v>72258</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107926</v>
+        <v>108012</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1758963175636481</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1417855990565732</v>
+        <v>0.1438355360433285</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2148344518776812</v>
+        <v>0.2150070346401384</v>
       </c>
     </row>
     <row r="23">
@@ -8356,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5212</v>
+        <v>5283</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.007145020786705797</v>
@@ -8365,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03577730655177878</v>
+        <v>0.03626962287048483</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -8374,19 +8374,19 @@
         <v>4315</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1074</v>
+        <v>1134</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10669</v>
+        <v>10971</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03856687228045083</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009596187508220345</v>
+        <v>0.01013975077392741</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09536620914290812</v>
+        <v>0.09806593874035213</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -8395,19 +8395,19 @@
         <v>5355</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2059</v>
+        <v>2081</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11250</v>
+        <v>11927</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02079421673011255</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007994918113783379</v>
+        <v>0.008080196694436914</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04368094672736345</v>
+        <v>0.04631103367201991</v>
       </c>
     </row>
     <row r="25">
@@ -8424,19 +8424,19 @@
         <v>24142</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16092</v>
+        <v>15740</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34113</v>
+        <v>33916</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1657328143391447</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1104655421439006</v>
+        <v>0.1080510580607433</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2341787793173778</v>
+        <v>0.2328264470482009</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -8445,19 +8445,19 @@
         <v>23554</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15603</v>
+        <v>15541</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33091</v>
+        <v>32848</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2105384361337931</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1394714828859017</v>
+        <v>0.1389192537748931</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2957897150191723</v>
+        <v>0.293616353459736</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -8466,19 +8466,19 @@
         <v>47696</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36052</v>
+        <v>35700</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>62623</v>
+        <v>59994</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1851957257262433</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1399838971520732</v>
+        <v>0.13861563556038</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2431544691435529</v>
+        <v>0.2329452390131823</v>
       </c>
     </row>
     <row r="26">
@@ -8495,19 +8495,19 @@
         <v>97821</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>84813</v>
+        <v>85915</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>109406</v>
+        <v>110480</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6715170464829427</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5822244889624901</v>
+        <v>0.5897867731847287</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.751046004141083</v>
+        <v>0.7584229431910885</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>49</v>
@@ -8516,19 +8516,19 @@
         <v>57055</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>46249</v>
+        <v>46129</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>68834</v>
+        <v>67754</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5099969046455358</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.413403696054472</v>
+        <v>0.4123380694285907</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6152871200379409</v>
+        <v>0.605630614717908</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>135</v>
@@ -8537,19 +8537,19 @@
         <v>154875</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>136709</v>
+        <v>138694</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>170495</v>
+        <v>171011</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6013550426562593</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5308176317730249</v>
+        <v>0.538523909944317</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.662003460800294</v>
+        <v>0.6640083876009587</v>
       </c>
     </row>
     <row r="27">
@@ -8566,19 +8566,19 @@
         <v>22667</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14881</v>
+        <v>14256</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>34232</v>
+        <v>33779</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1556051183912068</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1021579135135495</v>
+        <v>0.0978616283660025</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2349948456448769</v>
+        <v>0.2318874730610396</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>22</v>
@@ -8587,19 +8587,19 @@
         <v>26950</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>17661</v>
+        <v>18176</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>37588</v>
+        <v>36848</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2408977869402203</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1578649951577308</v>
+        <v>0.162473164060491</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3359895853388092</v>
+        <v>0.3293734913016658</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>42</v>
@@ -8608,19 +8608,19 @@
         <v>49617</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>38492</v>
+        <v>38169</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>65165</v>
+        <v>65223</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1926550148873849</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1494595914702861</v>
+        <v>0.1482038074836713</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2530243800970408</v>
+        <v>0.2532508613735356</v>
       </c>
     </row>
     <row r="28">
@@ -8712,19 +8712,19 @@
         <v>2990</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>871</v>
+        <v>892</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8090</v>
+        <v>8259</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05134540123736957</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01495337284189562</v>
+        <v>0.01531577618636881</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1389302024723803</v>
+        <v>0.1418364512219638</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -8746,19 +8746,19 @@
         <v>2990</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8115</v>
+        <v>8315</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03387672752151207</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01020264081009129</v>
+        <v>0.01012160561728718</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09194169186137124</v>
+        <v>0.09421239576148863</v>
       </c>
     </row>
     <row r="30">
@@ -8775,19 +8775,19 @@
         <v>6857</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2677</v>
+        <v>3032</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14148</v>
+        <v>13518</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1177542111709861</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04596662316584937</v>
+        <v>0.05206432039946416</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2429522290313725</v>
+        <v>0.2321392945344681</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -8796,19 +8796,19 @@
         <v>4193</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1034</v>
+        <v>1064</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9462</v>
+        <v>8957</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1396452997386314</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03442354961562973</v>
+        <v>0.03543893631361976</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3151205763293801</v>
+        <v>0.2983069681860279</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -8817,19 +8817,19 @@
         <v>11050</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5834</v>
+        <v>5195</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>18807</v>
+        <v>18727</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1252019722996851</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06609892599699095</v>
+        <v>0.05886643094834332</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2130920661816928</v>
+        <v>0.2121844065644562</v>
       </c>
     </row>
     <row r="31">
@@ -8846,19 +8846,19 @@
         <v>37233</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28721</v>
+        <v>29434</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>44046</v>
+        <v>44298</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6393985714955701</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4932186711814814</v>
+        <v>0.5054548786683702</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.756388787765006</v>
+        <v>0.760717122814917</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -8867,19 +8867,19 @@
         <v>17384</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11321</v>
+        <v>11507</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22588</v>
+        <v>22850</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5789575517541429</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3770390391090193</v>
+        <v>0.3832210290868722</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7522554630599245</v>
+        <v>0.7609728219299839</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>51</v>
@@ -8888,19 +8888,19 @@
         <v>54618</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>44830</v>
+        <v>45244</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>63736</v>
+        <v>63229</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6188353968494977</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5079319241446985</v>
+        <v>0.5126235081630823</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7221449643245007</v>
+        <v>0.7164033949820968</v>
       </c>
     </row>
     <row r="32">
@@ -8917,19 +8917,19 @@
         <v>11152</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5807</v>
+        <v>5903</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18260</v>
+        <v>18065</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1915018160960742</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09972389947741263</v>
+        <v>0.101366294763215</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3135662881795702</v>
+        <v>0.3102274244064188</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -8938,19 +8938,19 @@
         <v>8450</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3741</v>
+        <v>3769</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14075</v>
+        <v>14625</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2813971485072256</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1245858891660961</v>
+        <v>0.1255094985400938</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.468743971870542</v>
+        <v>0.487072269210048</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -8959,19 +8959,19 @@
         <v>19601</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>12194</v>
+        <v>12545</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>28161</v>
+        <v>27821</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2220859033293051</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1381648873925086</v>
+        <v>0.1421409261204288</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3190740108657744</v>
+        <v>0.3152194116310115</v>
       </c>
     </row>
     <row r="33">
@@ -9110,19 +9110,19 @@
         <v>2396</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5780</v>
+        <v>6086</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1040619509556975</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03207768789303973</v>
+        <v>0.03195905948110881</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2510065190260065</v>
+        <v>0.2643102872699746</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -9144,19 +9144,19 @@
         <v>2396</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6226</v>
+        <v>5928</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07719570082552725</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02355142352941974</v>
+        <v>0.02310638506854929</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2005865709565002</v>
+        <v>0.1909809277097526</v>
       </c>
     </row>
     <row r="36">
@@ -9173,19 +9173,19 @@
         <v>12427</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8275</v>
+        <v>8253</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16671</v>
+        <v>16620</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5396643776942072</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3593623914061574</v>
+        <v>0.3583908141855868</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7239552211400647</v>
+        <v>0.7217573710281993</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -9194,7 +9194,7 @@
         <v>6752</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2801</v>
+        <v>2794</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>8014</v>
@@ -9203,7 +9203,7 @@
         <v>0.8425751647208063</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3495046888696286</v>
+        <v>0.3485829044360451</v>
       </c>
       <c r="P36" s="6" t="n">
         <v>1</v>
@@ -9215,19 +9215,19 @@
         <v>19179</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>13958</v>
+        <v>13961</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>23987</v>
+        <v>23813</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6178685329752088</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4496687468855358</v>
+        <v>0.4497440067827119</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7727666230561532</v>
+        <v>0.7671317311716158</v>
       </c>
     </row>
     <row r="37">
@@ -9244,19 +9244,19 @@
         <v>8204</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4109</v>
+        <v>4165</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12239</v>
+        <v>12429</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3562736713500953</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1784254257383682</v>
+        <v>0.1808841489102876</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5314899744588372</v>
+        <v>0.5397530163164878</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5213</v>
+        <v>5220</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1574248352791937</v>
@@ -9277,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6504953111303714</v>
+        <v>0.6514170955639553</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>11</v>
@@ -9286,19 +9286,19 @@
         <v>9466</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5234</v>
+        <v>5629</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>14803</v>
+        <v>14774</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3049357661992639</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1686147808720322</v>
+        <v>0.181350769946531</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4768979089991751</v>
+        <v>0.475941390787574</v>
       </c>
     </row>
     <row r="38">
@@ -9390,19 +9390,19 @@
         <v>32917</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>23047</v>
+        <v>22726</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>45504</v>
+        <v>45839</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02830386996230591</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01981711191443668</v>
+        <v>0.01954149937930067</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03912694908454444</v>
+        <v>0.03941498057868265</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>23</v>
@@ -9411,19 +9411,19 @@
         <v>22900</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>14552</v>
+        <v>14970</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>33690</v>
+        <v>33707</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.02506254011375764</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01592661278743431</v>
+        <v>0.01638412244228438</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03687189778864635</v>
+        <v>0.03689089203585242</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>55</v>
@@ -9432,19 +9432,19 @@
         <v>55817</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>42893</v>
+        <v>43106</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>73658</v>
+        <v>73112</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02687774856345363</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02065451192270047</v>
+        <v>0.02075698586760553</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03546885720892178</v>
+        <v>0.03520610511847829</v>
       </c>
     </row>
     <row r="40">
@@ -9461,19 +9461,19 @@
         <v>229354</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>201820</v>
+        <v>203160</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>257014</v>
+        <v>258815</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1972115231903978</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1735358010006836</v>
+        <v>0.1746888243028952</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2209952698567408</v>
+        <v>0.2225438882257313</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>178</v>
@@ -9482,19 +9482,19 @@
         <v>183082</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>159134</v>
+        <v>157327</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>208438</v>
+        <v>208612</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2003744379412966</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1741638267888836</v>
+        <v>0.1721869781336002</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2281251632239188</v>
+        <v>0.2283156331783541</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>387</v>
@@ -9503,19 +9503,19 @@
         <v>412436</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>376597</v>
+        <v>375590</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>451903</v>
+        <v>445512</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1986031434881662</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1813451500984358</v>
+        <v>0.1808601226886426</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2176075292305652</v>
+        <v>0.2145301507885037</v>
       </c>
     </row>
     <row r="41">
@@ -9532,19 +9532,19 @@
         <v>649628</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>613961</v>
+        <v>616464</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>680705</v>
+        <v>688014</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.5585869546734734</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.5279181904548418</v>
+        <v>0.5300704665587119</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5853085901272977</v>
+        <v>0.5915927565317731</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>508</v>
@@ -9553,19 +9553,19 @@
         <v>522094</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>492741</v>
+        <v>488548</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>553778</v>
+        <v>550869</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.5714056087958271</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5392806000303801</v>
+        <v>0.534690895578774</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.6060820684199315</v>
+        <v>0.6028981563138183</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1112</v>
@@ -9574,19 +9574,19 @@
         <v>1171722</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1124743</v>
+        <v>1124840</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1221581</v>
+        <v>1215129</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.5642269104331633</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5416048215962636</v>
+        <v>0.5416516814042249</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.5882359063681808</v>
+        <v>0.5851288981021644</v>
       </c>
     </row>
     <row r="42">
@@ -9603,19 +9603,19 @@
         <v>251086</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>223246</v>
+        <v>221726</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>280629</v>
+        <v>280349</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2158976521738229</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1919597234622424</v>
+        <v>0.1906527530307789</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2413010254082398</v>
+        <v>0.2410598977780485</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>176</v>
@@ -9624,19 +9624,19 @@
         <v>185625</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>163105</v>
+        <v>161708</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>213804</v>
+        <v>212071</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2031574131491186</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1785107136810162</v>
+        <v>0.1769813436368317</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2339981147295006</v>
+        <v>0.2321011690899032</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>412</v>
@@ -9645,19 +9645,19 @@
         <v>436711</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>400820</v>
+        <v>402567</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>477508</v>
+        <v>478529</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2102921975152169</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1930094270466009</v>
+        <v>0.1938505842423665</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2299373644800578</v>
+        <v>0.2304289953183225</v>
       </c>
     </row>
     <row r="43">
